--- a/biology/Botanique/Microlicia/Microlicia.xlsx
+++ b/biology/Botanique/Microlicia/Microlicia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Microlicia est un genre  de plantes  dicotylédones appartenant à la famille des Melastomataceae. Ce groupe comprend à l'heure actuelle[1]   quelque 186 espèces décrites et acceptées[2]. Les espèces de ce genre sont originaires du Brésil, de Bolivie, de Colombie, Guyane, Pérou et Venezuela [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Microlicia est un genre  de plantes  dicotylédones appartenant à la famille des Melastomataceae. Ce groupe comprend à l'heure actuelle   quelque 186 espèces décrites et acceptées. Les espèces de ce genre sont originaires du Brésil, de Bolivie, de Colombie, Guyane, Pérou et Venezuela .
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit par David DON et publié sur Memoirs of the Wernerian Naturel History Society 4: 283, 301. en 1823[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par David DON et publié sur Memoirs of the Wernerian Naturel History Society 4: 283, 301. en 1823.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un petit nombre des espèces du genre Microlicia acceptées avant février de 2013, cette liste alphabétique ne comporte que les premières espèces nommées dans ce groupe :
 Microlicia benthamiana Triana
